--- a/Code/Results/Cases/Case_5_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_230/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.70632737786849</v>
+        <v>1.606891053220522</v>
       </c>
       <c r="C2">
-        <v>0.3261732212372976</v>
+        <v>0.1429500831398798</v>
       </c>
       <c r="D2">
-        <v>0.06106072403196094</v>
+        <v>0.1249724091644211</v>
       </c>
       <c r="E2">
-        <v>0.04453580192205386</v>
+        <v>0.120966038716622</v>
       </c>
       <c r="F2">
-        <v>0.8807281667008482</v>
+        <v>1.675643970990265</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05085261656648221</v>
+        <v>0.148110158128766</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2761423571437405</v>
+        <v>0.3160357423338951</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8162645912378466</v>
+        <v>1.454331322397422</v>
       </c>
       <c r="O2">
-        <v>2.295018950704019</v>
+        <v>4.329673273218816</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.360335518000113</v>
+        <v>1.510906854829216</v>
       </c>
       <c r="C3">
-        <v>0.2929059077669081</v>
+        <v>0.1320061420179144</v>
       </c>
       <c r="D3">
-        <v>0.05709662374992774</v>
+        <v>0.1243874862335375</v>
       </c>
       <c r="E3">
-        <v>0.04434066795093017</v>
+        <v>0.1215383176540445</v>
       </c>
       <c r="F3">
-        <v>0.8404353605227328</v>
+        <v>1.678269952518946</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05250958320005061</v>
+        <v>0.1493628627989612</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2465581420763669</v>
+        <v>0.3092004679035654</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8448913176557866</v>
+        <v>1.467457292950066</v>
       </c>
       <c r="O3">
-        <v>2.194715573107658</v>
+        <v>4.339556449032727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.148772830220253</v>
+        <v>1.45240851255312</v>
       </c>
       <c r="C4">
-        <v>0.2724464991810152</v>
+        <v>0.1252392689780493</v>
       </c>
       <c r="D4">
-        <v>0.05470390541825765</v>
+        <v>0.1240625125239561</v>
       </c>
       <c r="E4">
-        <v>0.04427219177389397</v>
+        <v>0.121927452672498</v>
       </c>
       <c r="F4">
-        <v>0.8173587553006385</v>
+        <v>1.680778051694631</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05359841179665281</v>
+        <v>0.1501807542709148</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2285699475526002</v>
+        <v>0.3051170192270689</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8635811073341628</v>
+        <v>1.476064786199359</v>
       </c>
       <c r="O4">
-        <v>2.137892605878932</v>
+        <v>4.348080734095475</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.062745674344171</v>
+        <v>1.42868126370513</v>
       </c>
       <c r="C5">
-        <v>0.2640986010755739</v>
+        <v>0.1224699808846736</v>
       </c>
       <c r="D5">
-        <v>0.05373877656542447</v>
+        <v>0.1239387148678404</v>
       </c>
       <c r="E5">
-        <v>0.04425686022230657</v>
+        <v>0.122095538650683</v>
       </c>
       <c r="F5">
-        <v>0.8083512366173125</v>
+        <v>1.682025394674994</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0540596921507337</v>
+        <v>0.1505263150356786</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2212803473005636</v>
+        <v>0.3034816613593705</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8714694821119906</v>
+        <v>1.479710325444593</v>
       </c>
       <c r="O5">
-        <v>2.115870124652901</v>
+        <v>4.352171853911273</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.04847122118781</v>
+        <v>1.424748140946463</v>
       </c>
       <c r="C6">
-        <v>0.262711742349282</v>
+        <v>0.1220094384884618</v>
       </c>
       <c r="D6">
-        <v>0.05357910431180102</v>
+        <v>0.1239186808511406</v>
       </c>
       <c r="E6">
-        <v>0.04425506428642123</v>
+        <v>0.12212402409512</v>
       </c>
       <c r="F6">
-        <v>0.8068788672582698</v>
+        <v>1.6822461218947</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05413733771530538</v>
+        <v>0.1505844361339594</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2200722714144376</v>
+        <v>0.3032118482649651</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8727955595198367</v>
+        <v>1.480323997060786</v>
       </c>
       <c r="O6">
-        <v>2.112279935367496</v>
+        <v>4.35288846605286</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.14761192727417</v>
+        <v>1.452088065832527</v>
       </c>
       <c r="C7">
-        <v>0.2723339618978002</v>
+        <v>0.1252019686967714</v>
       </c>
       <c r="D7">
-        <v>0.05469084975094773</v>
+        <v>0.1240608079437564</v>
       </c>
       <c r="E7">
-        <v>0.04427193453175349</v>
+        <v>0.1219296810094566</v>
       </c>
       <c r="F7">
-        <v>0.8172356998999248</v>
+        <v>1.68079396163904</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05360456213276343</v>
+        <v>0.1501853649555631</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2284714772324321</v>
+        <v>0.3050948478849023</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8636864007299323</v>
+        <v>1.476113392675984</v>
       </c>
       <c r="O7">
-        <v>2.137591097012518</v>
+        <v>4.34813340875408</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.586825796995072</v>
+        <v>1.573706052430737</v>
       </c>
       <c r="C8">
-        <v>0.3147081555777334</v>
+        <v>0.1391865047557275</v>
       </c>
       <c r="D8">
-        <v>0.05968505918819034</v>
+        <v>0.1247636585375034</v>
       </c>
       <c r="E8">
-        <v>0.04445765736205765</v>
+        <v>0.1211555348524058</v>
       </c>
       <c r="F8">
-        <v>0.8664764507868128</v>
+        <v>1.676363514665823</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05140886942225542</v>
+        <v>0.148531984280444</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2659027698817482</v>
+        <v>0.3136554864498606</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8258993496579023</v>
+        <v>1.458743455477808</v>
       </c>
       <c r="O8">
-        <v>2.25940571864993</v>
+        <v>4.33257114206728</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.456783573323435</v>
+        <v>1.815604218637304</v>
       </c>
       <c r="C9">
-        <v>0.3976514701123222</v>
+        <v>0.1662299329418602</v>
       </c>
       <c r="D9">
-        <v>0.06982820189067951</v>
+        <v>0.1264115142573488</v>
       </c>
       <c r="E9">
-        <v>0.04524524302774502</v>
+        <v>0.1199362711098431</v>
       </c>
       <c r="F9">
-        <v>0.9772849686898013</v>
+        <v>1.674783178183148</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04768847085345485</v>
+        <v>0.1456758152408106</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3408873417925804</v>
+        <v>0.3313372079276604</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7609957253821378</v>
+        <v>1.429025804156126</v>
       </c>
       <c r="O9">
-        <v>2.539177796200306</v>
+        <v>4.321553114353719</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.103807567936258</v>
+        <v>1.995345918230043</v>
       </c>
       <c r="C10">
-        <v>0.4586693171426361</v>
+        <v>0.1858616385550818</v>
       </c>
       <c r="D10">
-        <v>0.07752709229992405</v>
+        <v>0.1277846476447806</v>
       </c>
       <c r="E10">
-        <v>0.04610569376346163</v>
+        <v>0.1192217142890986</v>
       </c>
       <c r="F10">
-        <v>1.068941232088633</v>
+        <v>1.677958678469295</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04533892598665368</v>
+        <v>0.1438120303167043</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3972160663599453</v>
+        <v>0.3448670973744328</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7194571656637478</v>
+        <v>1.409835277288408</v>
       </c>
       <c r="O10">
-        <v>2.774256347320744</v>
+        <v>4.325369774305301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.400489712216086</v>
+        <v>2.077542605579652</v>
       </c>
       <c r="C11">
-        <v>0.48648751085301</v>
+        <v>0.1947401106865527</v>
       </c>
       <c r="D11">
-        <v>0.08109118775509216</v>
+        <v>0.1284442136089794</v>
       </c>
       <c r="E11">
-        <v>0.0465639522008825</v>
+        <v>0.1189358017912401</v>
       </c>
       <c r="F11">
-        <v>1.113236057163874</v>
+        <v>1.680345898222058</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04435980208630141</v>
+        <v>0.1430149403840879</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4231760572106964</v>
+        <v>0.3511380776938466</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7020237340369064</v>
+        <v>1.401677819984883</v>
       </c>
       <c r="O11">
-        <v>2.88871427727986</v>
+        <v>4.329698269913365</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.513228540725095</v>
+        <v>2.108729037880778</v>
       </c>
       <c r="C12">
-        <v>0.4970340420312027</v>
+        <v>0.1980945399575944</v>
       </c>
       <c r="D12">
-        <v>0.08245042216811527</v>
+        <v>0.128698959435944</v>
       </c>
       <c r="E12">
-        <v>0.04674759478570145</v>
+        <v>0.1188331467689512</v>
       </c>
       <c r="F12">
-        <v>1.130416772149431</v>
+        <v>1.681385461308736</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04400251041319336</v>
+        <v>0.1427203910827739</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4330605548946096</v>
+        <v>0.3535293053748916</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6956441979074057</v>
+        <v>1.398671050879194</v>
       </c>
       <c r="O12">
-        <v>2.933237088842588</v>
+        <v>4.331710474109173</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.488929884656613</v>
+        <v>2.102009825291191</v>
       </c>
       <c r="C13">
-        <v>0.4947620456210871</v>
+        <v>0.1973724466961926</v>
       </c>
       <c r="D13">
-        <v>0.08215724857336681</v>
+        <v>0.1286438743856024</v>
       </c>
       <c r="E13">
-        <v>0.04670758610295778</v>
+        <v>0.1188550059240452</v>
       </c>
       <c r="F13">
-        <v>1.126697927896913</v>
+        <v>1.681155542750005</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04407885026320457</v>
+        <v>0.142783503373014</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4309292531534226</v>
+        <v>0.3530135784904189</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6970080690870759</v>
+        <v>1.399314953254709</v>
       </c>
       <c r="O13">
-        <v>2.923594166118477</v>
+        <v>4.331260511081894</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.409756626589285</v>
+        <v>2.080107132670094</v>
       </c>
       <c r="C14">
-        <v>0.487354910120672</v>
+        <v>0.1950162359719343</v>
       </c>
       <c r="D14">
-        <v>0.08120281642839444</v>
+        <v>0.1284650720677476</v>
       </c>
       <c r="E14">
-        <v>0.04657885498386705</v>
+        <v>0.1189272438760565</v>
       </c>
       <c r="F14">
-        <v>1.114641163390502</v>
+        <v>1.680428706466458</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04433013381525086</v>
+        <v>0.142990561546906</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4239881438613509</v>
+        <v>0.3513344747977953</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7014943634211548</v>
+        <v>1.40142880235625</v>
       </c>
       <c r="O14">
-        <v>2.892352952393452</v>
+        <v>4.329856335853123</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.36131341797568</v>
+        <v>2.06669890783121</v>
       </c>
       <c r="C15">
-        <v>0.4828195520724989</v>
+        <v>0.1935719870139962</v>
       </c>
       <c r="D15">
-        <v>0.08061946953711185</v>
+        <v>0.1283561981984604</v>
       </c>
       <c r="E15">
-        <v>0.04650133548764579</v>
+        <v>0.1189722223544454</v>
       </c>
       <c r="F15">
-        <v>1.10731011307287</v>
+        <v>1.680001154694608</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04448582590700489</v>
+        <v>0.1431183399958993</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4197437257682282</v>
+        <v>0.350308124989553</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7042716402141522</v>
+        <v>1.402734310861774</v>
       </c>
       <c r="O15">
-        <v>2.87337354877792</v>
+        <v>4.32904483601763</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.084470463148648</v>
+        <v>1.98998270561674</v>
       </c>
       <c r="C16">
-        <v>0.4568528606520488</v>
+        <v>0.1852803472310711</v>
       </c>
       <c r="D16">
-        <v>0.07729547291729233</v>
+        <v>0.1277422428105197</v>
       </c>
       <c r="E16">
-        <v>0.04607713229616373</v>
+        <v>0.119241185726624</v>
       </c>
       <c r="F16">
-        <v>1.066101573234562</v>
+        <v>1.677821638668334</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04540476788689141</v>
+        <v>0.1438651427261597</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3955267560672127</v>
+        <v>0.3444595978460256</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7206269033169335</v>
+        <v>1.410379902070538</v>
       </c>
       <c r="O16">
-        <v>2.76693583839878</v>
+        <v>4.325139088433104</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.915274745674424</v>
+        <v>1.943029061000516</v>
       </c>
       <c r="C17">
-        <v>0.4409412090008686</v>
+        <v>0.1801802358880025</v>
       </c>
       <c r="D17">
-        <v>0.07527262507132093</v>
+        <v>0.1273745172685707</v>
       </c>
       <c r="E17">
-        <v>0.04583436009530573</v>
+        <v>0.1194162008901039</v>
       </c>
       <c r="F17">
-        <v>1.041510331320211</v>
+        <v>1.676726030552089</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04599188475457971</v>
+        <v>0.1443362764876586</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.380760365759798</v>
+        <v>0.3409013540575643</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7310430829033336</v>
+        <v>1.415216810345875</v>
       </c>
       <c r="O17">
-        <v>2.703633634682831</v>
+        <v>4.323407218344244</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.818175327059009</v>
+        <v>1.91606326184592</v>
       </c>
       <c r="C18">
-        <v>0.4317947408311227</v>
+        <v>0.1772418936928659</v>
       </c>
       <c r="D18">
-        <v>0.07411491157490957</v>
+        <v>0.1271663004902308</v>
       </c>
       <c r="E18">
-        <v>0.0457009829402466</v>
+        <v>0.119520550191103</v>
       </c>
       <c r="F18">
-        <v>1.0276086769817</v>
+        <v>1.676184592959885</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04633798424440805</v>
+        <v>0.1446120379055031</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3722983643129396</v>
+        <v>0.3388656900113176</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7371711123499693</v>
+        <v>1.418052751354907</v>
       </c>
       <c r="O18">
-        <v>2.66792531204581</v>
+        <v>4.322655070123545</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.785334905690945</v>
+        <v>1.906940146557133</v>
       </c>
       <c r="C19">
-        <v>0.428698741909102</v>
+        <v>0.1762461861647182</v>
       </c>
       <c r="D19">
-        <v>0.07372390115114769</v>
+        <v>0.127096367987015</v>
       </c>
       <c r="E19">
-        <v>0.04565688405141266</v>
+        <v>0.1195565144639197</v>
       </c>
       <c r="F19">
-        <v>1.022942502504122</v>
+        <v>1.676016509872767</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04645659409660752</v>
+        <v>0.1447062267852903</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3694384734370146</v>
+        <v>0.3381783336393767</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7392691278497523</v>
+        <v>1.419022207039468</v>
       </c>
       <c r="O19">
-        <v>2.655952669878445</v>
+        <v>4.322442299007662</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.933263031569822</v>
+        <v>1.948023157047203</v>
       </c>
       <c r="C20">
-        <v>0.4426344377044984</v>
+        <v>0.1807236590578043</v>
       </c>
       <c r="D20">
-        <v>0.07548735809378826</v>
+        <v>0.1274133221408107</v>
       </c>
       <c r="E20">
-        <v>0.04585955231987882</v>
+        <v>0.1193971889300869</v>
       </c>
       <c r="F20">
-        <v>1.044102771437139</v>
+        <v>1.676833476824228</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04592851113801899</v>
+        <v>0.1442856290687331</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3823290003594337</v>
+        <v>0.3412790037223061</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7299200094875076</v>
+        <v>1.41469633711975</v>
       </c>
       <c r="O20">
-        <v>2.710298975159901</v>
+        <v>4.323566325699801</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.433000646541359</v>
+        <v>2.086538860493306</v>
       </c>
       <c r="C21">
-        <v>0.4895301986493052</v>
+        <v>0.1957085212566199</v>
       </c>
       <c r="D21">
-        <v>0.08148289022344102</v>
+        <v>0.1285174557292947</v>
       </c>
       <c r="E21">
-        <v>0.04661638790003053</v>
+        <v>0.1189058735988251</v>
       </c>
       <c r="F21">
-        <v>1.118171196924877</v>
+        <v>1.680638516279657</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04425595501746571</v>
+        <v>0.1429295457132707</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.426025402119862</v>
+        <v>0.3518272205487136</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7001705033477137</v>
+        <v>1.400805680704728</v>
       </c>
       <c r="O21">
-        <v>2.901496402212132</v>
+        <v>4.330258647778379</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.76191979065544</v>
+        <v>2.177417753308873</v>
       </c>
       <c r="C22">
-        <v>0.5202534079986378</v>
+        <v>0.2054572969296089</v>
       </c>
       <c r="D22">
-        <v>0.08545757084981176</v>
+        <v>0.1292680947186042</v>
       </c>
       <c r="E22">
-        <v>0.04717020981049025</v>
+        <v>0.1186174855078832</v>
       </c>
       <c r="F22">
-        <v>1.168970167226433</v>
+        <v>1.683915572558973</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04324172263914861</v>
+        <v>0.1420857632086818</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4549013447784063</v>
+        <v>0.3588174439683911</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6820282998024823</v>
+        <v>1.39220693177986</v>
       </c>
       <c r="O22">
-        <v>3.033384801009106</v>
+        <v>4.336807314771761</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.586138870835271</v>
+        <v>2.128882429502198</v>
       </c>
       <c r="C23">
-        <v>0.5038477829833425</v>
+        <v>0.2002583361700658</v>
       </c>
       <c r="D23">
-        <v>0.08333081717098878</v>
+        <v>0.1288648217416295</v>
       </c>
       <c r="E23">
-        <v>0.04686903502519613</v>
+        <v>0.118768415141238</v>
       </c>
       <c r="F23">
-        <v>1.141627331271465</v>
+        <v>1.682094231954196</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04377561661917362</v>
+        <v>0.1425322197322973</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4394586172828383</v>
+        <v>0.3550778668585224</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6915879874598403</v>
+        <v>1.396752370912694</v>
       </c>
       <c r="O23">
-        <v>2.962324746500315</v>
+        <v>4.333113059958919</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.925129991288486</v>
+        <v>1.945765237390901</v>
       </c>
       <c r="C24">
-        <v>0.4418689250657053</v>
+        <v>0.180477996804882</v>
       </c>
       <c r="D24">
-        <v>0.07539026099777857</v>
+        <v>0.1273957685085918</v>
       </c>
       <c r="E24">
-        <v>0.04584814365390244</v>
+        <v>0.1194057726153659</v>
       </c>
       <c r="F24">
-        <v>1.042929996110018</v>
+        <v>1.676784624871644</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04595713573690929</v>
+        <v>0.1443085115019738</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3816197357614612</v>
+        <v>0.3411082370938487</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7304273169476616</v>
+        <v>1.414931471307476</v>
       </c>
       <c r="O24">
-        <v>2.707283448618881</v>
+        <v>4.323493634707035</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.220254105859055</v>
+        <v>1.749805672564207</v>
       </c>
       <c r="C25">
-        <v>0.3752124779406074</v>
+        <v>0.1589552241981096</v>
       </c>
       <c r="D25">
-        <v>0.067043460772652</v>
+        <v>0.125937061626658</v>
       </c>
       <c r="E25">
-        <v>0.04498449536300875</v>
+        <v>0.1202342195758916</v>
       </c>
       <c r="F25">
-        <v>0.9456283918023871</v>
+        <v>1.674449407329206</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04862958825614783</v>
+        <v>0.1464072261235145</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3204056328627587</v>
+        <v>0.3264587194025381</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7775158515996097</v>
+        <v>1.43660068455479</v>
       </c>
       <c r="O25">
-        <v>2.458658172976953</v>
+        <v>4.322443730337767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_230/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.606891053220522</v>
+        <v>2.706327377868433</v>
       </c>
       <c r="C2">
-        <v>0.1429500831398798</v>
+        <v>0.3261732212373829</v>
       </c>
       <c r="D2">
-        <v>0.1249724091644211</v>
+        <v>0.061060724032032</v>
       </c>
       <c r="E2">
-        <v>0.120966038716622</v>
+        <v>0.04453580192206807</v>
       </c>
       <c r="F2">
-        <v>1.675643970990265</v>
+        <v>0.8807281667008482</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.148110158128766</v>
+        <v>0.05085261656655149</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3160357423338951</v>
+        <v>0.2761423571437689</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.454331322397422</v>
+        <v>0.8162645912378679</v>
       </c>
       <c r="O2">
-        <v>4.329673273218816</v>
+        <v>2.295018950703962</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.510906854829216</v>
+        <v>2.360335518000227</v>
       </c>
       <c r="C3">
-        <v>0.1320061420179144</v>
+        <v>0.2929059077664249</v>
       </c>
       <c r="D3">
-        <v>0.1243874862335375</v>
+        <v>0.05709662374992774</v>
       </c>
       <c r="E3">
-        <v>0.1215383176540445</v>
+        <v>0.0443406679509426</v>
       </c>
       <c r="F3">
-        <v>1.678269952518946</v>
+        <v>0.8404353605227328</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1493628627989612</v>
+        <v>0.05250958319998844</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3092004679035654</v>
+        <v>0.2465581420764664</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.467457292950066</v>
+        <v>0.8448913176557795</v>
       </c>
       <c r="O3">
-        <v>4.339556449032727</v>
+        <v>2.194715573107715</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.45240851255312</v>
+        <v>2.148772830220139</v>
       </c>
       <c r="C4">
-        <v>0.1252392689780493</v>
+        <v>0.272446499180802</v>
       </c>
       <c r="D4">
-        <v>0.1240625125239561</v>
+        <v>0.05470390541841397</v>
       </c>
       <c r="E4">
-        <v>0.121927452672498</v>
+        <v>0.04427219177393482</v>
       </c>
       <c r="F4">
-        <v>1.680778051694631</v>
+        <v>0.8173587553006172</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1501807542709148</v>
+        <v>0.05359841179676827</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3051170192270689</v>
+        <v>0.2285699475527139</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.476064786199359</v>
+        <v>0.8635811073341557</v>
       </c>
       <c r="O4">
-        <v>4.348080734095475</v>
+        <v>2.137892605878875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.42868126370513</v>
+        <v>2.062745674344342</v>
       </c>
       <c r="C5">
-        <v>0.1224699808846736</v>
+        <v>0.2640986010758155</v>
       </c>
       <c r="D5">
-        <v>0.1239387148678404</v>
+        <v>0.05373877656536763</v>
       </c>
       <c r="E5">
-        <v>0.122095538650683</v>
+        <v>0.04425686022230302</v>
       </c>
       <c r="F5">
-        <v>1.682025394674994</v>
+        <v>0.8083512366173196</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1505263150356786</v>
+        <v>0.05405969215075856</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3034816613593705</v>
+        <v>0.2212803473006346</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.479710325444593</v>
+        <v>0.8714694821119764</v>
       </c>
       <c r="O5">
-        <v>4.352171853911273</v>
+        <v>2.115870124652872</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.424748140946463</v>
+        <v>2.048471221187697</v>
       </c>
       <c r="C6">
-        <v>0.1220094384884618</v>
+        <v>0.2627117423495235</v>
       </c>
       <c r="D6">
-        <v>0.1239186808511406</v>
+        <v>0.05357910431167312</v>
       </c>
       <c r="E6">
-        <v>0.12212402409512</v>
+        <v>0.04425506428645143</v>
       </c>
       <c r="F6">
-        <v>1.6822461218947</v>
+        <v>0.8068788672582627</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1505844361339594</v>
+        <v>0.0541373377153711</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3032118482649651</v>
+        <v>0.2200722714144376</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.480323997060786</v>
+        <v>0.8727955595198367</v>
       </c>
       <c r="O6">
-        <v>4.35288846605286</v>
+        <v>2.112279935367496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.452088065832527</v>
+        <v>2.147611927274284</v>
       </c>
       <c r="C7">
-        <v>0.1252019686967714</v>
+        <v>0.2723339618975729</v>
       </c>
       <c r="D7">
-        <v>0.1240608079437564</v>
+        <v>0.05469084975083405</v>
       </c>
       <c r="E7">
-        <v>0.1219296810094566</v>
+        <v>0.04427193453174461</v>
       </c>
       <c r="F7">
-        <v>1.68079396163904</v>
+        <v>0.8172356998999035</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1501853649555631</v>
+        <v>0.05360456213282028</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3050948478849023</v>
+        <v>0.2284714772323468</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.476113392675984</v>
+        <v>0.8636864007299394</v>
       </c>
       <c r="O7">
-        <v>4.34813340875408</v>
+        <v>2.137591097012546</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.573706052430737</v>
+        <v>2.586825796995186</v>
       </c>
       <c r="C8">
-        <v>0.1391865047557275</v>
+        <v>0.3147081555778897</v>
       </c>
       <c r="D8">
-        <v>0.1247636585375034</v>
+        <v>0.05968505918809086</v>
       </c>
       <c r="E8">
-        <v>0.1211555348524058</v>
+        <v>0.04445765736204521</v>
       </c>
       <c r="F8">
-        <v>1.676363514665823</v>
+        <v>0.8664764507868057</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.148531984280444</v>
+        <v>0.05140886942229983</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3136554864498606</v>
+        <v>0.2659027698817766</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.458743455477808</v>
+        <v>0.8258993496579023</v>
       </c>
       <c r="O8">
-        <v>4.33257114206728</v>
+        <v>2.25940571864993</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.815604218637304</v>
+        <v>3.456783573323378</v>
       </c>
       <c r="C9">
-        <v>0.1662299329418602</v>
+        <v>0.3976514701119527</v>
       </c>
       <c r="D9">
-        <v>0.1264115142573488</v>
+        <v>0.06982820189062267</v>
       </c>
       <c r="E9">
-        <v>0.1199362711098431</v>
+        <v>0.04524524302774147</v>
       </c>
       <c r="F9">
-        <v>1.674783178183148</v>
+        <v>0.9772849686898013</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1456758152408106</v>
+        <v>0.04768847085352412</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3313372079276604</v>
+        <v>0.3408873417926372</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.429025804156126</v>
+        <v>0.7609957253821378</v>
       </c>
       <c r="O9">
-        <v>4.321553114353719</v>
+        <v>2.539177796200306</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.995345918230043</v>
+        <v>4.103807567936371</v>
       </c>
       <c r="C10">
-        <v>0.1858616385550818</v>
+        <v>0.4586693171426361</v>
       </c>
       <c r="D10">
-        <v>0.1277846476447806</v>
+        <v>0.07752709229980326</v>
       </c>
       <c r="E10">
-        <v>0.1192217142890986</v>
+        <v>0.04610569376345985</v>
       </c>
       <c r="F10">
-        <v>1.677958678469295</v>
+        <v>1.068941232088633</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1438120303167043</v>
+        <v>0.04533892598664835</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3448670973744328</v>
+        <v>0.3972160663599738</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.409835277288408</v>
+        <v>0.7194571656636768</v>
       </c>
       <c r="O10">
-        <v>4.325369774305301</v>
+        <v>2.774256347320801</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.077542605579652</v>
+        <v>4.400489712216029</v>
       </c>
       <c r="C11">
-        <v>0.1947401106865527</v>
+        <v>0.48648751085301</v>
       </c>
       <c r="D11">
-        <v>0.1284442136089794</v>
+        <v>0.08109118775509216</v>
       </c>
       <c r="E11">
-        <v>0.1189358017912401</v>
+        <v>0.0465639522008825</v>
       </c>
       <c r="F11">
-        <v>1.680345898222058</v>
+        <v>1.11323605716386</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1430149403840879</v>
+        <v>0.04435980208627655</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3511380776938466</v>
+        <v>0.4231760572107532</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.401677819984883</v>
+        <v>0.7020237340368922</v>
       </c>
       <c r="O11">
-        <v>4.329698269913365</v>
+        <v>2.888714277279774</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.108729037880778</v>
+        <v>4.513228540725265</v>
       </c>
       <c r="C12">
-        <v>0.1980945399575944</v>
+        <v>0.4970340420312027</v>
       </c>
       <c r="D12">
-        <v>0.128698959435944</v>
+        <v>0.08245042216817211</v>
       </c>
       <c r="E12">
-        <v>0.1188331467689512</v>
+        <v>0.046747594785705</v>
       </c>
       <c r="F12">
-        <v>1.681385461308736</v>
+        <v>1.130416772149431</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1427203910827739</v>
+        <v>0.04400251041319514</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3535293053748916</v>
+        <v>0.4330605548946664</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.398671050879194</v>
+        <v>0.6956441979074057</v>
       </c>
       <c r="O12">
-        <v>4.331710474109173</v>
+        <v>2.93323708884256</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.102009825291191</v>
+        <v>4.488929884656443</v>
       </c>
       <c r="C13">
-        <v>0.1973724466961926</v>
+        <v>0.494762045621286</v>
       </c>
       <c r="D13">
-        <v>0.1286438743856024</v>
+        <v>0.08215724857318918</v>
       </c>
       <c r="E13">
-        <v>0.1188550059240452</v>
+        <v>0.04670758610295422</v>
       </c>
       <c r="F13">
-        <v>1.681155542750005</v>
+        <v>1.126697927896899</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.142783503373014</v>
+        <v>0.04407885026315839</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3530135784904189</v>
+        <v>0.4309292531534652</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.399314953254709</v>
+        <v>0.6970080690870688</v>
       </c>
       <c r="O13">
-        <v>4.331260511081894</v>
+        <v>2.923594166118562</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.080107132670094</v>
+        <v>4.409756626589456</v>
       </c>
       <c r="C14">
-        <v>0.1950162359719343</v>
+        <v>0.4873549101206436</v>
       </c>
       <c r="D14">
-        <v>0.1284650720677476</v>
+        <v>0.08120281642850102</v>
       </c>
       <c r="E14">
-        <v>0.1189272438760565</v>
+        <v>0.04657885498386705</v>
       </c>
       <c r="F14">
-        <v>1.680428706466458</v>
+        <v>1.114641163390502</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.142990561546906</v>
+        <v>0.04433013381535389</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3513344747977953</v>
+        <v>0.4239881438614077</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.40142880235625</v>
+        <v>0.7014943634210979</v>
       </c>
       <c r="O14">
-        <v>4.329856335853123</v>
+        <v>2.892352952393537</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.06669890783121</v>
+        <v>4.36131341797568</v>
       </c>
       <c r="C15">
-        <v>0.1935719870139962</v>
+        <v>0.4828195520724989</v>
       </c>
       <c r="D15">
-        <v>0.1283561981984604</v>
+        <v>0.08061946953704791</v>
       </c>
       <c r="E15">
-        <v>0.1189722223544454</v>
+        <v>0.0465013354876298</v>
       </c>
       <c r="F15">
-        <v>1.680001154694608</v>
+        <v>1.10731011307287</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1431183399958993</v>
+        <v>0.0444858259070422</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.350308124989553</v>
+        <v>0.4197437257681287</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.402734310861774</v>
+        <v>0.7042716402140954</v>
       </c>
       <c r="O15">
-        <v>4.32904483601763</v>
+        <v>2.87337354877792</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.98998270561674</v>
+        <v>4.084470463148818</v>
       </c>
       <c r="C16">
-        <v>0.1852803472310711</v>
+        <v>0.4568528606521909</v>
       </c>
       <c r="D16">
-        <v>0.1277422428105197</v>
+        <v>0.07729547291744865</v>
       </c>
       <c r="E16">
-        <v>0.119241185726624</v>
+        <v>0.04607713229619037</v>
       </c>
       <c r="F16">
-        <v>1.677821638668334</v>
+        <v>1.066101573234548</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1438651427261597</v>
+        <v>0.04540476788693582</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3444595978460256</v>
+        <v>0.3955267560672127</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.410379902070538</v>
+        <v>0.7206269033169264</v>
       </c>
       <c r="O16">
-        <v>4.325139088433104</v>
+        <v>2.76693583839878</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.943029061000516</v>
+        <v>3.915274745674651</v>
       </c>
       <c r="C17">
-        <v>0.1801802358880025</v>
+        <v>0.4409412090010392</v>
       </c>
       <c r="D17">
-        <v>0.1273745172685707</v>
+        <v>0.07527262507144172</v>
       </c>
       <c r="E17">
-        <v>0.1194162008901039</v>
+        <v>0.04583436009528974</v>
       </c>
       <c r="F17">
-        <v>1.676726030552089</v>
+        <v>1.041510331320197</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1443362764876586</v>
+        <v>0.04599188475450333</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3409013540575643</v>
+        <v>0.3807603657597127</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.415216810345875</v>
+        <v>0.7310430829032697</v>
       </c>
       <c r="O17">
-        <v>4.323407218344244</v>
+        <v>2.703633634682774</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.91606326184592</v>
+        <v>3.818175327059066</v>
       </c>
       <c r="C18">
-        <v>0.1772418936928659</v>
+        <v>0.4317947408314922</v>
       </c>
       <c r="D18">
-        <v>0.1271663004902308</v>
+        <v>0.07411491157473904</v>
       </c>
       <c r="E18">
-        <v>0.119520550191103</v>
+        <v>0.04570098294024305</v>
       </c>
       <c r="F18">
-        <v>1.676184592959885</v>
+        <v>1.027608676981671</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1446120379055031</v>
+        <v>0.04633798424440627</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3388656900113176</v>
+        <v>0.372298364312968</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.418052751354907</v>
+        <v>0.7371711123500475</v>
       </c>
       <c r="O18">
-        <v>4.322655070123545</v>
+        <v>2.667925312045725</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.906940146557133</v>
+        <v>3.785334905690718</v>
       </c>
       <c r="C19">
-        <v>0.1762461861647182</v>
+        <v>0.4286987419089883</v>
       </c>
       <c r="D19">
-        <v>0.127096367987015</v>
+        <v>0.07372390115121163</v>
       </c>
       <c r="E19">
-        <v>0.1195565144639197</v>
+        <v>0.04565688405141088</v>
       </c>
       <c r="F19">
-        <v>1.676016509872767</v>
+        <v>1.022942502504137</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1447062267852903</v>
+        <v>0.04645659409670166</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3381783336393767</v>
+        <v>0.3694384734370715</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.419022207039468</v>
+        <v>0.739269127849731</v>
       </c>
       <c r="O19">
-        <v>4.322442299007662</v>
+        <v>2.655952669878417</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.948023157047203</v>
+        <v>3.933263031569879</v>
       </c>
       <c r="C20">
-        <v>0.1807236590578043</v>
+        <v>0.4426344377045268</v>
       </c>
       <c r="D20">
-        <v>0.1274133221408107</v>
+        <v>0.07548735809347562</v>
       </c>
       <c r="E20">
-        <v>0.1193971889300869</v>
+        <v>0.04585955231989836</v>
       </c>
       <c r="F20">
-        <v>1.676833476824228</v>
+        <v>1.044102771437153</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1442856290687331</v>
+        <v>0.04592851113797813</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3412790037223061</v>
+        <v>0.3823290003595048</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.41469633711975</v>
+        <v>0.7299200094875715</v>
       </c>
       <c r="O20">
-        <v>4.323566325699801</v>
+        <v>2.710298975159901</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.086538860493306</v>
+        <v>4.433000646541245</v>
       </c>
       <c r="C21">
-        <v>0.1957085212566199</v>
+        <v>0.4895301986494474</v>
       </c>
       <c r="D21">
-        <v>0.1285174557292947</v>
+        <v>0.08148289022336996</v>
       </c>
       <c r="E21">
-        <v>0.1189058735988251</v>
+        <v>0.04661638790002876</v>
       </c>
       <c r="F21">
-        <v>1.680638516279657</v>
+        <v>1.118171196924862</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1429295457132707</v>
+        <v>0.04425595501740176</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3518272205487136</v>
+        <v>0.4260254021197909</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.400805680704728</v>
+        <v>0.7001705033477208</v>
       </c>
       <c r="O21">
-        <v>4.330258647778379</v>
+        <v>2.901496402212246</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.177417753308873</v>
+        <v>4.761919790655497</v>
       </c>
       <c r="C22">
-        <v>0.2054572969296089</v>
+        <v>0.5202534079984105</v>
       </c>
       <c r="D22">
-        <v>0.1292680947186042</v>
+        <v>0.08545757084987571</v>
       </c>
       <c r="E22">
-        <v>0.1186174855078832</v>
+        <v>0.04717020981048492</v>
       </c>
       <c r="F22">
-        <v>1.683915572558973</v>
+        <v>1.168970167226433</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1420857632086818</v>
+        <v>0.0432417226392019</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3588174439683911</v>
+        <v>0.4549013447784773</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.39220693177986</v>
+        <v>0.6820282998025533</v>
       </c>
       <c r="O22">
-        <v>4.336807314771761</v>
+        <v>3.033384801009106</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.128882429502198</v>
+        <v>4.586138870835384</v>
       </c>
       <c r="C23">
-        <v>0.2002583361700658</v>
+        <v>0.5038477829832004</v>
       </c>
       <c r="D23">
-        <v>0.1288648217416295</v>
+        <v>0.08333081717078983</v>
       </c>
       <c r="E23">
-        <v>0.118768415141238</v>
+        <v>0.04686903502519257</v>
       </c>
       <c r="F23">
-        <v>1.682094231954196</v>
+        <v>1.141627331271494</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1425322197322973</v>
+        <v>0.04377561661916651</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3550778668585224</v>
+        <v>0.4394586172828099</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.396752370912694</v>
+        <v>0.6915879874597834</v>
       </c>
       <c r="O23">
-        <v>4.333113059958919</v>
+        <v>2.9623247465004</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.945765237390901</v>
+        <v>3.925129991288657</v>
       </c>
       <c r="C24">
-        <v>0.180477996804882</v>
+        <v>0.4418689250659327</v>
       </c>
       <c r="D24">
-        <v>0.1273957685085918</v>
+        <v>0.07539026099787804</v>
       </c>
       <c r="E24">
-        <v>0.1194057726153659</v>
+        <v>0.04584814365389889</v>
       </c>
       <c r="F24">
-        <v>1.676784624871644</v>
+        <v>1.042929996110061</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1443085115019738</v>
+        <v>0.04595713573673876</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3411082370938487</v>
+        <v>0.3816197357613333</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.414931471307476</v>
+        <v>0.7304273169476545</v>
       </c>
       <c r="O24">
-        <v>4.323493634707035</v>
+        <v>2.707283448618938</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.749805672564207</v>
+        <v>3.220254105858999</v>
       </c>
       <c r="C25">
-        <v>0.1589552241981096</v>
+        <v>0.3752124779408632</v>
       </c>
       <c r="D25">
-        <v>0.125937061626658</v>
+        <v>0.06704346077271595</v>
       </c>
       <c r="E25">
-        <v>0.1202342195758916</v>
+        <v>0.04498449536302473</v>
       </c>
       <c r="F25">
-        <v>1.674449407329206</v>
+        <v>0.9456283918023871</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1464072261235145</v>
+        <v>0.04862958825603414</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3264587194025381</v>
+        <v>0.3204056328627871</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.43660068455479</v>
+        <v>0.777515851599567</v>
       </c>
       <c r="O25">
-        <v>4.322443730337767</v>
+        <v>2.458658172976897</v>
       </c>
     </row>
   </sheetData>
